--- a/tweets_spider man_201809191428.xlsx
+++ b/tweets_spider man_201809191428.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni D. Santos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni D. Santos\Desktop\Insper\2_Semestre\Ciência dos Dados\Projetos\Projeto_2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C594CDE-8CB3-4AFD-9BC7-EB36000A9A72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A25A6-7AAB-4DBD-85B8-6BFCD39BDBA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1459,12 +1459,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2191,8 +2194,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="232" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B48">

--- a/tweets_spider man_201809191428.xlsx
+++ b/tweets_spider man_201809191428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni D. Santos\Desktop\Insper\2_Semestre\Ciência dos Dados\Projetos\Projeto_2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gugat\Desktop\Insper DS 2018.1\2 semestre\Ciencia dos dados\Projeto_2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808A25A6-7AAB-4DBD-85B8-6BFCD39BDBA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5EF5AE16-C8A7-4754-844D-4C6E25A922D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1459,15 +1459,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1808,17 +1805,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1842,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1866,15 +1863,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1978,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1994,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2002,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2082,15 +2079,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2114,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2146,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2154,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2178,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2186,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2194,15 +2191,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="232" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2242,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2258,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2266,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2298,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2306,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2322,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2338,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2354,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2362,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2402,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -2418,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2450,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -2474,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -2482,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2498,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2506,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2514,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2538,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2562,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -2578,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -2626,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -2642,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -2658,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -2706,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -2714,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -2738,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -2762,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -2770,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -2794,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -2810,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -2818,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -2826,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2842,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -2850,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -2858,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>68</v>
       </c>
@@ -2866,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>124</v>
       </c>
@@ -2874,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -2882,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -2898,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -2914,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -2930,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -2946,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>133</v>
       </c>
@@ -2954,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>134</v>
       </c>
@@ -2962,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>135</v>
       </c>
@@ -2970,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>136</v>
       </c>
@@ -2978,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>137</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>138</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>51</v>
       </c>
@@ -3002,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>139</v>
       </c>
@@ -3010,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>140</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -3026,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -3034,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -3042,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>142</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>143</v>
       </c>
@@ -3058,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>144</v>
       </c>
@@ -3066,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>145</v>
       </c>
@@ -3074,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>146</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -3090,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -3098,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -3106,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>150</v>
       </c>
@@ -3114,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -3122,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>154</v>
       </c>
@@ -3146,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>79</v>
       </c>
@@ -3154,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -3162,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>156</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -3178,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>158</v>
       </c>
@@ -3186,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>159</v>
       </c>
@@ -3194,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3202,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>162</v>
       </c>
@@ -3218,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -3226,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>164</v>
       </c>
@@ -3234,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>165</v>
       </c>
@@ -3242,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>166</v>
       </c>
@@ -3250,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>167</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>168</v>
       </c>
@@ -3266,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>169</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>170</v>
       </c>
@@ -3282,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>64</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>55</v>
       </c>
@@ -3298,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>171</v>
       </c>
@@ -3306,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>172</v>
       </c>
@@ -3314,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>173</v>
       </c>
@@ -3322,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>174</v>
       </c>
@@ -3330,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>175</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>176</v>
       </c>
@@ -3346,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>177</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>178</v>
       </c>
@@ -3362,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>179</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>180</v>
       </c>
@@ -3378,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>79</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -3394,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -3402,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -3410,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -3418,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>79</v>
       </c>
@@ -3426,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>79</v>
       </c>
@@ -3434,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -3442,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>185</v>
       </c>
@@ -3450,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>186</v>
       </c>
@@ -3458,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>188</v>
       </c>
@@ -3474,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>189</v>
       </c>
@@ -3482,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>55</v>
       </c>
@@ -3490,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>68</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -3506,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>190</v>
       </c>
@@ -3514,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>191</v>
       </c>
@@ -3522,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>192</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>193</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>194</v>
       </c>
@@ -3546,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>195</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>196</v>
       </c>
@@ -3562,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>197</v>
       </c>
@@ -3570,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>198</v>
       </c>
@@ -3578,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>45</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>199</v>
       </c>
@@ -3594,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>200</v>
       </c>
@@ -3602,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>201</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>202</v>
       </c>
@@ -3618,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>203</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>204</v>
       </c>
@@ -3634,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>205</v>
       </c>
@@ -3642,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>206</v>
       </c>
@@ -3650,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>207</v>
       </c>
@@ -3658,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>79</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>208</v>
       </c>
@@ -3674,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>209</v>
       </c>
@@ -3682,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>210</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>64</v>
       </c>
@@ -3698,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>211</v>
       </c>
@@ -3706,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>212</v>
       </c>
@@ -3714,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>213</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>214</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>215</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -3746,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>217</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -3762,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>218</v>
       </c>
@@ -3770,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>219</v>
       </c>
@@ -3778,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>220</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>221</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>222</v>
       </c>
@@ -3802,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>223</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>224</v>
       </c>
@@ -3818,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>225</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>226</v>
       </c>
@@ -3834,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>227</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>228</v>
       </c>
@@ -3850,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>229</v>
       </c>
@@ -3858,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>104</v>
       </c>
@@ -3866,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -3874,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>231</v>
       </c>
@@ -3882,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>64</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>232</v>
       </c>
@@ -3898,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>233</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>234</v>
       </c>
@@ -3914,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>235</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>236</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>237</v>
       </c>
@@ -3938,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>238</v>
       </c>
@@ -3946,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>239</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>240</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>241</v>
       </c>
@@ -3970,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>242</v>
       </c>
@@ -3978,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>243</v>
       </c>
@@ -3986,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>244</v>
       </c>
@@ -3994,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>245</v>
       </c>
@@ -4002,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>246</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>247</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>248</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>249</v>
       </c>
@@ -4034,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>51</v>
       </c>
@@ -4042,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>250</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>251</v>
       </c>
@@ -4058,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>252</v>
       </c>
@@ -4066,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>253</v>
       </c>
@@ -4074,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>254</v>
       </c>
@@ -4082,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>255</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>256</v>
       </c>
@@ -4098,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>257</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>258</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>259</v>
       </c>
@@ -4122,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -4130,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>260</v>
       </c>
@@ -4138,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>261</v>
       </c>
@@ -4146,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>262</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>263</v>
       </c>
@@ -4162,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>264</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>265</v>
       </c>
@@ -4178,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>266</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>267</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>268</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>64</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>269</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>270</v>
       </c>
@@ -4234,1015 +4231,1617 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>443</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tweets_spider man_201809191428.xlsx
+++ b/tweets_spider man_201809191428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gugat\Desktop\Insper DS 2018.1\2 semestre\Ciencia dos dados\Projeto_2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni D. Santos\Desktop\Insper\2_Semestre\Ciência dos Dados\Projetos\Projeto_2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5EF5AE16-C8A7-4754-844D-4C6E25A922D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CBECD-FE34-4672-8076-FC3994B1701A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="446">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1401,6 +1401,9 @@
   </si>
   <si>
     <t>Relevancia</t>
+  </si>
+  <si>
+    <t>Relevancia_T</t>
   </si>
 </sst>
 </file>
@@ -1803,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1815,1615 +1818,2821 @@
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>310</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>312</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>314</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>316</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>323</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>325</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>327</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>328</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>329</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>332</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>335</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>336</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>337</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>338</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>339</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>340</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>341</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>342</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>343</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>344</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>346</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>347</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>348</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>349</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>350</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>352</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>55</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>354</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>355</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>93</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>356</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>94</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>95</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>357</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>96</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>97</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>358</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>98</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>99</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>359</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>100</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>360</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>101</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>361</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>102</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>362</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>103</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>363</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>104</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>364</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>105</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>365</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>106</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>366</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>107</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>367</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>108</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>368</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>109</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>369</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>370</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>371</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>372</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>373</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>374</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>375</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>376</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>377</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>378</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>379</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>380</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>381</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>122</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>382</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>123</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>383</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>68</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>384</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>124</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>385</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>125</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>126</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
+        <v>386</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>127</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E135" t="s">
+        <v>387</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>128</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E136" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>388</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>130</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>389</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>131</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>390</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>391</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>17</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E141" t="s">
+        <v>392</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>133</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E142" t="s">
+        <v>393</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>134</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>135</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>394</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>136</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>137</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E146" t="s">
+        <v>395</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>138</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>396</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>51</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>397</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>139</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>140</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>398</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>45</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
+        <v>399</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E152" t="s">
+        <v>400</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>51</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>401</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>142</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
+        <v>402</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>143</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
+        <v>403</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>144</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>404</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>145</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>405</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>146</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>406</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>147</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>407</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>148</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>408</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>149</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>409</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>150</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>410</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>151</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>152</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>411</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>153</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
+        <v>412</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>154</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
+        <v>413</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>79</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
+        <v>414</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>155</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
+        <v>415</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>156</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>416</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>157</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>417</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>158</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>418</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>159</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>419</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>160</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>68</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>161</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>420</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>162</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E175" t="s">
+        <v>421</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>163</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>422</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>164</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>165</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>423</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>166</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>424</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>167</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>304</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>168</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E181" t="s">
+        <v>425</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>169</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E182" t="s">
+        <v>426</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>170</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E183" t="s">
+        <v>427</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>64</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>55</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>55</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
+        <v>428</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>171</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E186" t="s">
+        <v>429</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>172</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E187" t="s">
+        <v>430</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>173</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>174</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E189" t="s">
+        <v>431</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>175</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
+        <v>432</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>176</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
+        <v>433</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>177</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>434</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>178</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E193" t="s">
+        <v>435</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>179</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E194" t="s">
+        <v>436</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>180</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E195" t="s">
+        <v>437</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>79</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E196" t="s">
+        <v>438</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>181</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E197" t="s">
+        <v>439</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>182</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E198" t="s">
+        <v>440</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>183</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
+        <v>441</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>184</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E200" t="s">
+        <v>442</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>79</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
+        <v>443</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>79</v>
       </c>
@@ -3431,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -3439,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>185</v>
       </c>
@@ -3447,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>186</v>
       </c>
@@ -3455,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>187</v>
       </c>
@@ -3463,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>188</v>
       </c>
@@ -3471,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>189</v>
       </c>
@@ -4231,1620 +5440,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>292</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>296</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>298</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>299</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>300</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>301</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>302</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>304</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>305</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>307</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>308</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>310</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>311</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>312</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>314</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>316</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>317</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>318</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>319</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>320</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>321</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>304</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>323</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>324</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>325</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>326</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>327</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>328</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>329</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>330</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>331</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>332</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>333</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>334</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>335</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>336</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>337</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>338</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>339</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>340</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>341</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>342</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>343</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>344</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>345</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>346</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>347</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>348</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>350</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>351</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>352</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>353</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>354</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>355</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>356</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>357</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>358</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>359</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>360</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>361</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>362</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>363</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>364</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>365</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>366</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>367</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>368</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>369</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>370</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>45</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>371</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>372</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>373</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>374</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>375</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>376</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>377</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>378</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>379</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>380</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>381</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>382</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>383</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>384</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>385</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>64</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>386</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>387</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>64</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>388</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>389</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>390</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>391</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>392</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>393</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>45</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>394</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>395</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>396</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>397</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>398</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>399</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>400</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>401</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>402</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>403</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>404</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>405</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>406</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>407</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>408</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>409</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>410</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>411</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>412</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>413</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>414</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>415</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>416</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>417</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>418</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>419</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>68</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>420</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>421</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>422</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>423</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>424</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>304</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>425</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>426</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>427</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>55</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>428</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>429</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>430</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>431</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>432</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>433</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>434</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>435</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>436</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>437</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>438</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>439</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>440</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>441</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>442</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>443</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>